--- a/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8056C821-F6DE-48F9-9472-DD9D94AC6178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9694B350-E2F9-4713-8B86-FE01D4486589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B20AD7C0-F7B3-4B6E-8EB2-3FFB4361DC6A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0912B30-3337-426E-9A23-A0AA20064C84}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -134,13 +134,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -149,13 +149,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,57%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>99,19%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -164,7 +164,7 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -173,13 +173,13 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,5%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -188,7 +188,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,38%</t>
+    <t>99,5%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -230,31 +230,31 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,8%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,2%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,55%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -263,7 +263,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -272,13 +272,13 @@
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,68%</t>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,66%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FA2B2F-6805-425F-9CB6-70520E397C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B2A09A-97B1-4BF6-A428-9AB6DD98B29B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9694B350-E2F9-4713-8B86-FE01D4486589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{779AC0CE-E1E3-4FC7-BBEE-7094736225E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0912B30-3337-426E-9A23-A0AA20064C84}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5623BCEC-A8E2-4A92-A396-65E98B0E6130}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B2A09A-97B1-4BF6-A428-9AB6DD98B29B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ECC357-CA08-4B34-A36A-D67B14B436CE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779AC0CE-E1E3-4FC7-BBEE-7094736225E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA45E95-BB63-48F6-9DD3-223F16F7AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5623BCEC-A8E2-4A92-A396-65E98B0E6130}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB8C5126-19D0-424C-B582-32099DCE2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -134,13 +134,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -149,13 +149,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,57%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,19%</t>
+    <t>99,21%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -164,7 +164,7 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -173,13 +173,13 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,88%</t>
+    <t>98,9%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -188,7 +188,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,5%</t>
+    <t>99,38%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -230,31 +230,31 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,45%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,51%</t>
+    <t>99,55%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -263,7 +263,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -272,13 +272,13 @@
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,69%</t>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,66%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ECC357-CA08-4B34-A36A-D67B14B436CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAC5079-CD69-41D7-88D3-81DD183396DC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA45E95-BB63-48F6-9DD3-223F16F7AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1846DA2-9126-4341-9307-BAB0D9065FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB8C5126-19D0-424C-B582-32099DCE2F23}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3D061985-83C4-4A5D-9080-491E85617F34}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="87">
   <si>
     <t>Población que, necesitando medicamentos, no los pudo comprar por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>98,93%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,31%</t>
@@ -125,136 +125,139 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -269,10 +272,13 @@
     <t>0,02%</t>
   </si>
   <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,68%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -282,6 +288,9 @@
   </si>
   <si>
     <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -699,8 +708,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAC5079-CD69-41D7-88D3-81DD183396DC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2645D962-E824-4C56-9629-F8B7BFAD2000}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -871,7 +880,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -886,7 +895,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -901,7 +910,7 @@
         <v>178</v>
       </c>
       <c r="N5" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -922,7 +931,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -937,7 +946,7 @@
         <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -952,7 +961,7 @@
         <v>178</v>
       </c>
       <c r="N6" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1026,7 +1035,7 @@
         <v>145</v>
       </c>
       <c r="D8" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1041,7 +1050,7 @@
         <v>228</v>
       </c>
       <c r="I8" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1056,7 +1065,7 @@
         <v>373</v>
       </c>
       <c r="N8" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1077,7 +1086,7 @@
         <v>145</v>
       </c>
       <c r="D9" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1092,7 +1101,7 @@
         <v>228</v>
       </c>
       <c r="I9" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1107,7 +1116,7 @@
         <v>373</v>
       </c>
       <c r="N9" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1145,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>31</v>
@@ -1160,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>33</v>
@@ -1181,7 +1190,7 @@
         <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1196,7 +1205,7 @@
         <v>394</v>
       </c>
       <c r="I11" s="7">
-        <v>276558</v>
+        <v>256922</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -1211,7 +1220,7 @@
         <v>616</v>
       </c>
       <c r="N11" s="7">
-        <v>500333</v>
+        <v>472408</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -1232,7 +1241,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1247,7 +1256,7 @@
         <v>395</v>
       </c>
       <c r="I12" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1262,7 +1271,7 @@
         <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1285,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -1294,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1309,22 +1318,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,13 +1345,13 @@
         <v>295</v>
       </c>
       <c r="D14" s="7">
-        <v>346627</v>
+        <v>525794</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1351,13 +1360,13 @@
         <v>529</v>
       </c>
       <c r="I14" s="7">
-        <v>349095</v>
+        <v>321020</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1366,13 +1375,13 @@
         <v>824</v>
       </c>
       <c r="N14" s="7">
-        <v>695722</v>
+        <v>846814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1387,7 +1396,7 @@
         <v>296</v>
       </c>
       <c r="D15" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1402,7 +1411,7 @@
         <v>529</v>
       </c>
       <c r="I15" s="7">
-        <v>349095</v>
+        <v>321020</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1417,7 +1426,7 @@
         <v>825</v>
       </c>
       <c r="N15" s="7">
-        <v>696535</v>
+        <v>847578</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1431,7 +1440,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1449,37 +1458,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,13 +1500,13 @@
         <v>278</v>
       </c>
       <c r="D17" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1506,13 +1515,13 @@
         <v>410</v>
       </c>
       <c r="I17" s="7">
-        <v>247407</v>
+        <v>226639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1521,13 +1530,13 @@
         <v>688</v>
       </c>
       <c r="N17" s="7">
-        <v>502977</v>
+        <v>465143</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1542,7 +1551,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1557,7 +1566,7 @@
         <v>411</v>
       </c>
       <c r="I18" s="7">
-        <v>248151</v>
+        <v>227326</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1572,7 +1581,7 @@
         <v>689</v>
       </c>
       <c r="N18" s="7">
-        <v>503721</v>
+        <v>465830</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1586,7 +1595,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1604,37 +1613,37 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,49 +1652,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D20" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>719</v>
+        <v>375</v>
       </c>
       <c r="I20" s="7">
-        <v>393989</v>
+        <v>185860</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1153</v>
+        <v>617</v>
       </c>
       <c r="N20" s="7">
-        <v>687440</v>
+        <v>342213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1709,10 +1718,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="I21" s="7">
-        <v>394606</v>
+        <v>185860</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1724,10 +1733,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1154</v>
+        <v>617</v>
       </c>
       <c r="N21" s="7">
-        <v>688057</v>
+        <v>342213</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1741,55 +1750,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
-        <v>813</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
       <c r="I22" s="7">
-        <v>2156</v>
+        <v>560</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>2969</v>
+        <v>560</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,49 +1807,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1459</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7">
-        <v>1517718</v>
+        <v>118206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>2373</v>
+        <v>344</v>
       </c>
       <c r="I23" s="7">
-        <v>1682531</v>
+        <v>170055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7">
-        <v>3832</v>
+        <v>536</v>
       </c>
       <c r="N23" s="7">
-        <v>3200249</v>
+        <v>288262</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,63 +1858,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>192</v>
+      </c>
+      <c r="D24" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>345</v>
+      </c>
+      <c r="I24" s="7">
+        <v>170615</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>537</v>
+      </c>
+      <c r="N24" s="7">
+        <v>288822</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>764</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2013</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2778</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1459</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1663014</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2373</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1591961</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3832</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3254974</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1460</v>
       </c>
-      <c r="D24" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>2376</v>
       </c>
-      <c r="I24" s="7">
-        <v>1684687</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1593974</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3836</v>
       </c>
-      <c r="N24" s="7">
-        <v>3203218</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>83</v>
+      <c r="N27" s="7">
+        <v>3257752</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
